--- a/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/future_Y2.xlsx
+++ b/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/future_Y2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MLproject\8.27\EnterpCashPredict\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="14985" windowHeight="8580"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,85 +43,83 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>准入资本市场难度</t>
   </si>
   <si>
     <t>Cash flow risk[FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dev_label</t>
   </si>
   <si>
     <t>Rev YOY % [FY2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Avg. Cash Conversion Cycle [FY 2016] (Days)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Total Asset Turnover [FY 2016]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cash flow from Ops/Net income % 2016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Net income % margin 2016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gross Margin % [FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Return on Equity % [FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities/Total Assets % [FY 2016]</t>
   </si>
   <si>
     <t>Total Debt/Equity % [FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Net Property, Plant &amp; Equipment/ Total Assets % [FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Payout Ratio [FY 2016] (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R&amp;D Exp./Total Revenue % [FY 2016]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Goodwill/Total Asset % [FY 2016]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Liabilities/Total Assets % [FY 2016]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -135,26 +128,161 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u val="singleAccounting"/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,24 +291,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="60"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,38 +502,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ColumnHeaderNormal" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="ColumnHeaderNormal" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -266,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,16 +1104,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="A9:P9"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="1" ht="78.75" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,25 +1143,28 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>16</v>
       </c>
@@ -573,49 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6428813303951944E-2</v>
+        <v>0.0364288133039519</v>
       </c>
       <c r="D2">
-        <v>28.896672504378284</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>58.209961040551292</v>
+        <v>28.8966725043783</v>
       </c>
       <c r="F2">
-        <v>1.1486150251286089</v>
+        <v>58.2099610405513</v>
       </c>
       <c r="G2">
+        <v>1.14861502512861</v>
+      </c>
+      <c r="H2">
         <v>153.08541749205</v>
       </c>
-      <c r="H2">
-        <v>7.5744678763135243</v>
-      </c>
       <c r="I2">
-        <v>41.644540513833988</v>
+        <v>7.57446787631352</v>
       </c>
       <c r="J2">
-        <v>28.486025923956902</v>
+        <v>41.644540513834</v>
       </c>
       <c r="K2">
+        <v>28.4860259239569</v>
+      </c>
+      <c r="L2">
         <v>70</v>
       </c>
-      <c r="L2">
-        <v>34.653576619797519</v>
-      </c>
       <c r="M2">
-        <v>10.157115144414282</v>
+        <v>34.6535766197975</v>
       </c>
       <c r="N2">
-        <v>68.300000000000011</v>
+        <v>10.1571151444143</v>
       </c>
       <c r="O2">
+        <v>68.3</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>0.84634135448654246</v>
+      <c r="Q2">
+        <v>0.846341354486542</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>17</v>
       </c>
@@ -623,49 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.6989319465177445E-2</v>
+        <v>0.0369893194651774</v>
       </c>
       <c r="D3">
-        <v>19.812252964426879</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>33.11933852435368</v>
+        <v>19.8122529644269</v>
       </c>
       <c r="F3">
-        <v>1.1758191348744733</v>
+        <v>33.1193385243537</v>
       </c>
       <c r="G3">
-        <v>95.698498316824129</v>
+        <v>1.17581913487447</v>
       </c>
       <c r="H3">
-        <v>6.189412537082382</v>
+        <v>95.6984983168241</v>
       </c>
       <c r="I3">
-        <v>40.356247422680411</v>
+        <v>6.18941253708238</v>
       </c>
       <c r="J3">
-        <v>24.284136887352542</v>
+        <v>40.3562474226804</v>
       </c>
       <c r="K3">
+        <v>24.2841368873525</v>
+      </c>
+      <c r="L3">
         <v>70</v>
       </c>
-      <c r="L3">
-        <v>46.839264526524389</v>
-      </c>
       <c r="M3">
-        <v>9.3719527381528334</v>
+        <v>46.8392645265244</v>
       </c>
       <c r="N3">
-        <v>59.999999999999993</v>
+        <v>9.37195273815283</v>
       </c>
       <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="P3">
-        <v>1.0504098364171226</v>
+      <c r="Q3">
+        <v>1.05040983641712</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>18</v>
       </c>
@@ -673,49 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.6561772503363107E-2</v>
+        <v>0.0365617725033631</v>
       </c>
       <c r="D4">
-        <v>15.463917525773185</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>28.804583929399286</v>
+        <v>15.4639175257732</v>
       </c>
       <c r="F4">
-        <v>1.2042756864648974</v>
+        <v>28.8045839293993</v>
       </c>
       <c r="G4">
-        <v>143.83255665432287</v>
+        <v>1.2042756864649</v>
       </c>
       <c r="H4">
-        <v>5.4329200106286173</v>
+        <v>143.832556654323</v>
       </c>
       <c r="I4">
-        <v>39.334374999999994</v>
+        <v>5.43292001062862</v>
       </c>
       <c r="J4">
-        <v>21.542936387977431</v>
+        <v>39.334375</v>
       </c>
       <c r="K4">
+        <v>21.5429363879774</v>
+      </c>
+      <c r="L4">
         <v>70</v>
       </c>
-      <c r="L4">
-        <v>51.619178597827428</v>
-      </c>
       <c r="M4">
-        <v>8.3239652998310127</v>
+        <v>51.6191785978274</v>
       </c>
       <c r="N4">
-        <v>59.999999999999993</v>
+        <v>8.32396529983101</v>
       </c>
       <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="P4">
-        <v>1.2220632098323687</v>
+      <c r="Q4">
+        <v>1.22206320983237</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>19</v>
       </c>
@@ -723,49 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.612483447145115E-2</v>
+        <v>0.0361248344714512</v>
       </c>
       <c r="D5">
-        <v>15.17857142857142</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>16.59440077539071</v>
+        <v>15.1785714285714</v>
       </c>
       <c r="F5">
-        <v>1.2307847611018738</v>
+        <v>16.5944007753907</v>
       </c>
       <c r="G5">
-        <v>186.57147787078861</v>
+        <v>1.23078476110187</v>
       </c>
       <c r="H5">
-        <v>4.5358075837802136</v>
+        <v>186.571477870789</v>
       </c>
       <c r="I5">
-        <v>38.658496124030997</v>
+        <v>4.53580758378021</v>
       </c>
       <c r="J5">
-        <v>18.471072140895632</v>
+        <v>38.658496124031</v>
       </c>
       <c r="K5">
+        <v>18.4710721408956</v>
+      </c>
+      <c r="L5">
         <v>70</v>
       </c>
-      <c r="L5">
-        <v>49.18302366835831</v>
-      </c>
       <c r="M5">
-        <v>6.9860478893886695</v>
+        <v>49.1830236683583</v>
       </c>
       <c r="N5">
+        <v>6.98604788938867</v>
+      </c>
+      <c r="O5">
         <v>60</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>10</v>
       </c>
-      <c r="P5">
-        <v>1.3419778116107441</v>
+      <c r="Q5">
+        <v>1.34197781161074</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>20</v>
       </c>
@@ -773,96 +1384,100 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.4834312164711514E-2</v>
+        <v>0.0348343121647115</v>
       </c>
       <c r="D6">
-        <v>17.596899224806208</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>15.21882552172022</v>
+        <v>17.5968992248062</v>
       </c>
       <c r="F6">
-        <v>1.2814408943108113</v>
+        <v>15.2188255217202</v>
       </c>
       <c r="G6">
+        <v>1.28144089431081</v>
+      </c>
+      <c r="H6">
         <v>151.341568422839</v>
       </c>
-      <c r="H6">
-        <v>4.4546287747194633</v>
-      </c>
       <c r="I6">
-        <v>38.242953197099531</v>
+        <v>4.45462877471946</v>
       </c>
       <c r="J6">
-        <v>18.587880093762845</v>
+        <v>38.2429531970995</v>
       </c>
       <c r="K6">
+        <v>18.5878800937628</v>
+      </c>
+      <c r="L6">
         <v>70</v>
       </c>
-      <c r="L6">
-        <v>42.85487342912058</v>
-      </c>
       <c r="M6">
-        <v>5.8641835871428025</v>
+        <v>42.8548734291206</v>
       </c>
       <c r="N6">
+        <v>5.8641835871428</v>
+      </c>
+      <c r="O6">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="P6">
-        <v>1.4162099110883251</v>
+      <c r="Q6">
+        <v>1.41620991108833</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为保密信息,未经授权禁止扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为机密，未经许可不得扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为机密，未经许可不得扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>